--- a/app/static/Unknown project/data_files_names.xlsx
+++ b/app/static/Unknown project/data_files_names.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>patient_data_linear.xlsx</t>
+    <t>Table_1_A_Modular_Cytokine_Analysis_Method_Reveals_Novel_Associations_With_Clinical_Phenotypes_and_Identifies_Sets_of_Co-signaling_Cytokines_Across_In.xlsx</t>
   </si>
   <si>
-    <t>Hertz_23.5.19.Detail-_corrected_Ben.xls</t>
+    <t>cytokine_data.xlsx</t>
   </si>
 </sst>
 </file>

--- a/app/static/Unknown project/data_files_names.xlsx
+++ b/app/static/Unknown project/data_files_names.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Table_1_A_Modular_Cytokine_Analysis_Method_Reveals_Novel_Associations_With_Clinical_Phenotypes_and_Identifies_Sets_of_Co-signaling_Cytokines_Across_In.xlsx</t>
+    <t>cytokine_data.xlsx</t>
   </si>
   <si>
-    <t>cytokine_data.xlsx</t>
+    <t>Unknown project</t>
   </si>
 </sst>
 </file>
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -400,7 +400,12 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
